--- a/exo_dependances_fonctionnelles/ex1.xlsx
+++ b/exo_dependances_fonctionnelles/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentin/Documents/Isitech - Pcloud/Modélisation de données/exo_dependances_fonctionnelles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F48E9E3-26AD-5943-9CBF-EE85145DACBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF55BB-12D3-374B-BA41-1105D37E8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{0CFF9CDE-23D9-4642-AC0D-11CAC2F5E092}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" xr2:uid="{0CFF9CDE-23D9-4642-AC0D-11CAC2F5E092}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Nom de la donnée</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numerique</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0077BA9A-CD9E-5144-813A-0A18A51FAE7C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,6 +734,21 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
